--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C75D1-A7EF-4782-BF5A-24FF850AC9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C156266-8CB0-47FF-83C1-CFD173059CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,14 +232,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +549,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -575,157 +575,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
@@ -756,20 +756,20 @@
       <c r="M7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3"/>
@@ -777,8 +777,12 @@
       <c r="F8" s="2">
         <v>3.6</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
@@ -786,7 +790,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>3.6</v>
+        <v>11.8</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -794,13 +798,13 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3"/>
@@ -808,8 +812,12 @@
       <c r="F9" s="2">
         <v>3.3</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
@@ -817,7 +825,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <f>SUM(D9:M9)</f>
-        <v>3.3</v>
+        <v>16.5</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -825,22 +833,26 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.8">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2">
         <v>5.4</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
@@ -848,7 +860,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2">
         <f>SUM(D10:M10)</f>
-        <v>5.4</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -861,7 +873,7 @@
       </c>
       <c r="N11" s="6">
         <f>AVERAGE(N8:N10)</f>
-        <v>4.1000000000000005</v>
+        <v>15.216666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.8">
@@ -870,7 +882,7 @@
       </c>
       <c r="N12" s="2">
         <f>_xlfn.STDEV.P(N8:N10)</f>
-        <v>0.9273618495495709</v>
+        <v>2.4407421457872598</v>
       </c>
     </row>
   </sheetData>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_117.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE121_Computer Architecture and Organization/SCORE_117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE121_Computer Architecture and Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C156266-8CB0-47FF-83C1-CFD173059CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30B873-3674-404E-BE47-4F7ED63CF85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -785,12 +785,14 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>3.8</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
         <f>SUM(D8:M8)</f>
-        <v>11.8</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -820,12 +822,14 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2">
         <f>SUM(D9:M9)</f>
-        <v>16.5</v>
+        <v>21.1</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -855,12 +859,14 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>3.4</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2">
         <f>SUM(D10:M10)</f>
-        <v>17.350000000000001</v>
+        <v>20.75</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -873,7 +879,7 @@
       </c>
       <c r="N11" s="6">
         <f>AVERAGE(N8:N10)</f>
-        <v>15.216666666666669</v>
+        <v>19.150000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.8">
@@ -882,7 +888,7 @@
       </c>
       <c r="N12" s="2">
         <f>_xlfn.STDEV.P(N8:N10)</f>
-        <v>2.4407421457872598</v>
+        <v>2.5142924783458795</v>
       </c>
     </row>
   </sheetData>
